--- a/Item Library.xlsx
+++ b/Item Library.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Desktop\Projects\QR-Reader-App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varma\Desktop\QR-Reader-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94152ECD-219A-4361-A828-665E5E80C9AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23942" windowHeight="15421" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,9 +141,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -170,8 +179,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,14 +461,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
@@ -469,30 +479,30 @@
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -515,7 +525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -538,7 +548,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -561,7 +571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -584,7 +594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -594,5 +604,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Item Library.xlsx
+++ b/Item Library.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varma\Desktop\QR-Reader-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94152ECD-219A-4361-A828-665E5E80C9AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BC2148-9F66-4001-BE62-C82A98DC48F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23942" windowHeight="15421" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -465,7 +473,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.45"/>
